--- a/ramOP.xlsx
+++ b/ramOP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ernest/Documents/GitHub/ramOPodk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08DC2589-EA91-AD47-92C8-4542315A55AA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C8F427-DA4B-2448-9F99-9460DDADB1CF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="597">
   <si>
     <t>type</t>
   </si>
@@ -1838,18 +1838,34 @@
     <t>version</t>
   </si>
   <si>
-    <t>&lt;h1&gt;Sample &lt;span style="color:blue"&gt;ALL&lt;/span&gt; eligbile persons in the sampled household&lt;/h1&gt;
-&lt;h1&gt;Use one questionnaire per person&lt;/h1&gt;</t>
-  </si>
-  <si>
     <t>&lt;h1&gt;Interrogez &lt;span style="color:blue"&gt;toutes&lt;/span&gt; les personnes admissibles dans le ménage sélectionné&lt;/h1&gt;
 &lt;h1&gt;Utilisez un questionnaire par personne admissible&lt;/h1&gt;</t>
   </si>
   <si>
-    <t>Reminders</t>
-  </si>
-  <si>
     <t>Consent</t>
+  </si>
+  <si>
+    <t>Welcome</t>
+  </si>
+  <si>
+    <t>Bienvenue</t>
+  </si>
+  <si>
+    <t>form_logo.png</t>
+  </si>
+  <si>
+    <t>media::image::French</t>
+  </si>
+  <si>
+    <t>media::image::English</t>
+  </si>
+  <si>
+    <t>&lt;br/&gt;
+&lt;h1&gt;Welcome to Rapid Assessment Method for Older People (RAM-OP)&lt;/h1&gt;
+&lt;br/&gt;
+&lt;h2&gt;Remember to:&lt;/h2&gt;
+&lt;h3&gt;Sample &lt;span style="color:blue"&gt;ALL&lt;/span&gt; eligbile persons in the sampled household&lt;/h3&gt;
+&lt;h3&gt;Use one questionnaire per person&lt;/h3&gt;</t>
   </si>
 </sst>
 </file>
@@ -2548,13 +2564,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M183"/>
+  <dimension ref="A1:O183"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D171" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2562,18 +2578,18 @@
     <col min="1" max="1" width="38.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="70.83203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="38.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.83203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="36.83203125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="20.6640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="30.6640625" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="1"/>
+    <col min="5" max="7" width="14.1640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="38.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.83203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36.83203125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="20.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="30.6640625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15" ht="32">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2590,31 +2606,37 @@
         <v>324</v>
       </c>
       <c r="F1" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:15">
       <c r="A2" s="6" t="s">
         <v>98</v>
       </c>
@@ -2625,19 +2647,21 @@
         <v>591</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
-      <c r="H2" s="6"/>
+      <c r="H2" s="7"/>
       <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
       <c r="M2" s="6"/>
-    </row>
-    <row r="3" spans="1:13" ht="64">
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+    </row>
+    <row r="3" spans="1:15" ht="160">
       <c r="A3" s="1" t="s">
         <v>62</v>
       </c>
@@ -2645,13 +2669,19 @@
         <v>344</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="F3" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="6" t="s">
         <v>101</v>
       </c>
@@ -2661,14 +2691,16 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="6"/>
+      <c r="H4" s="7"/>
       <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
       <c r="M4" s="6"/>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="6" t="s">
         <v>98</v>
       </c>
@@ -2684,14 +2716,16 @@
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="6"/>
+      <c r="H6" s="7"/>
       <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
       <c r="M6" s="6"/>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
         <v>348</v>
       </c>
@@ -2707,11 +2741,11 @@
       <c r="E7" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="32">
+      <c r="O7" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="32">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -2724,20 +2758,20 @@
       <c r="D8" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="O8" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
         <v>307</v>
       </c>
@@ -2750,11 +2784,11 @@
       <c r="D9" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="O9" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
@@ -2767,11 +2801,11 @@
       <c r="D10" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="M10" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="O10" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="6" t="s">
         <v>101</v>
       </c>
@@ -2781,14 +2815,16 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="6"/>
+      <c r="H11" s="7"/>
       <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
       <c r="M11" s="6"/>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="6" t="s">
         <v>98</v>
       </c>
@@ -2796,24 +2832,26 @@
         <v>360</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="6"/>
+      <c r="H13" s="7"/>
       <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="6" t="s">
+      <c r="J13" s="6"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-    </row>
-    <row r="14" spans="1:13" ht="32">
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+    </row>
+    <row r="14" spans="1:15" ht="32">
       <c r="A14" s="1" t="s">
         <v>62</v>
       </c>
@@ -2827,7 +2865,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:15">
       <c r="A15" s="6" t="s">
         <v>101</v>
       </c>
@@ -2837,14 +2875,16 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="6"/>
+      <c r="H15" s="7"/>
       <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
       <c r="M15" s="6"/>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="6" t="s">
         <v>98</v>
       </c>
@@ -2860,16 +2900,18 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="6"/>
+      <c r="H17" s="7"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="6" t="s">
+      <c r="J17" s="6"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-    </row>
-    <row r="18" spans="1:13" ht="32">
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+    </row>
+    <row r="18" spans="1:15" ht="32">
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
@@ -2882,20 +2924,20 @@
       <c r="D18" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="K18" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="L18" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="M18" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="32">
+      <c r="O18" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="32">
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
@@ -2908,20 +2950,20 @@
       <c r="D19" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="J19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="K19" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="L19" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="M19" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="32">
+      <c r="O19" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="32">
       <c r="A20" s="1" t="s">
         <v>3</v>
       </c>
@@ -2934,20 +2976,20 @@
       <c r="D20" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="J20" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="K20" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="L20" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="M20" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="O20" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="6" t="s">
         <v>101</v>
       </c>
@@ -2957,17 +2999,19 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-      <c r="H21" s="10"/>
+      <c r="H21" s="7"/>
       <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
       <c r="M21" s="6"/>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="6" t="s">
         <v>98</v>
       </c>
@@ -2983,16 +3027,18 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-      <c r="H23" s="10"/>
+      <c r="H23" s="7"/>
       <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="6" t="s">
+      <c r="J23" s="10"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1" t="s">
         <v>15</v>
       </c>
@@ -3005,11 +3051,11 @@
       <c r="D24" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="M24" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="32">
+      <c r="O24" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="32">
       <c r="A25" s="1" t="s">
         <v>3</v>
       </c>
@@ -3022,20 +3068,20 @@
       <c r="D25" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="J25" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="K25" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J25" s="2" t="s">
+      <c r="L25" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="M25" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="O25" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="1" t="s">
         <v>16</v>
       </c>
@@ -3048,11 +3094,11 @@
       <c r="D26" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="M26" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="O26" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="1" t="s">
         <v>19</v>
       </c>
@@ -3065,11 +3111,11 @@
       <c r="D27" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="M27" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="O27" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="1" t="s">
         <v>22</v>
       </c>
@@ -3082,11 +3128,11 @@
       <c r="D28" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="M28" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="O28" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="6" t="s">
         <v>101</v>
       </c>
@@ -3096,14 +3142,16 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
-      <c r="H29" s="6"/>
+      <c r="H29" s="7"/>
       <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
       <c r="M29" s="6"/>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
@@ -3111,14 +3159,16 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
-      <c r="H30" s="4"/>
+      <c r="H30" s="5"/>
       <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
       <c r="M30" s="4"/>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" s="6" t="s">
         <v>98</v>
       </c>
@@ -3134,16 +3184,18 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
-      <c r="H31" s="6"/>
+      <c r="H31" s="7"/>
       <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="6" t="s">
+      <c r="J31" s="6"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-    </row>
-    <row r="32" spans="1:13" ht="64">
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+    </row>
+    <row r="32" spans="1:15" ht="64">
       <c r="A32" s="1" t="s">
         <v>3</v>
       </c>
@@ -3156,20 +3208,20 @@
       <c r="D32" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="H32" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="I32" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="J32" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="M32" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="O32" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" s="15" t="s">
         <v>98</v>
       </c>
@@ -3187,14 +3239,16 @@
       </c>
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
-      <c r="H34" s="15"/>
+      <c r="H34" s="16"/>
       <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
       <c r="M34" s="15"/>
-    </row>
-    <row r="35" spans="1:13" ht="32">
+      <c r="N34" s="15"/>
+      <c r="O34" s="15"/>
+    </row>
+    <row r="35" spans="1:15" ht="32">
       <c r="A35" s="1" t="s">
         <v>62</v>
       </c>
@@ -3208,7 +3262,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:15">
       <c r="A36" s="1" t="s">
         <v>22</v>
       </c>
@@ -3221,11 +3275,11 @@
       <c r="D36" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="M36" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="48">
+      <c r="O36" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="48">
       <c r="A37" s="1" t="s">
         <v>22</v>
       </c>
@@ -3238,11 +3292,11 @@
       <c r="D37" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="M37" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="80">
+      <c r="O37" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="80">
       <c r="A38" s="1" t="s">
         <v>22</v>
       </c>
@@ -3255,11 +3309,11 @@
       <c r="D38" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="M38" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="96">
+      <c r="O38" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="96">
       <c r="A39" s="1" t="s">
         <v>22</v>
       </c>
@@ -3272,11 +3326,11 @@
       <c r="D39" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="M39" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="32">
+      <c r="O39" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="32">
       <c r="A40" s="1" t="s">
         <v>22</v>
       </c>
@@ -3289,11 +3343,11 @@
       <c r="D40" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="M40" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="48">
+      <c r="O40" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="48">
       <c r="A41" s="1" t="s">
         <v>22</v>
       </c>
@@ -3306,11 +3360,11 @@
       <c r="D41" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="M41" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="48">
+      <c r="O41" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="48">
       <c r="A42" s="1" t="s">
         <v>22</v>
       </c>
@@ -3323,11 +3377,11 @@
       <c r="D42" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="M42" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="O42" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43" s="15" t="s">
         <v>101</v>
       </c>
@@ -3337,14 +3391,16 @@
       <c r="E43" s="16"/>
       <c r="F43" s="16"/>
       <c r="G43" s="16"/>
-      <c r="H43" s="15"/>
+      <c r="H43" s="16"/>
       <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="15"/>
-      <c r="L43" s="15"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
       <c r="M43" s="15"/>
-    </row>
-    <row r="45" spans="1:13">
+      <c r="N43" s="15"/>
+      <c r="O43" s="15"/>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45" s="15" t="s">
         <v>98</v>
       </c>
@@ -3362,14 +3418,16 @@
       </c>
       <c r="F45" s="16"/>
       <c r="G45" s="16"/>
-      <c r="H45" s="15"/>
+      <c r="H45" s="16"/>
       <c r="I45" s="16"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="15"/>
-      <c r="L45" s="15"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16"/>
       <c r="M45" s="15"/>
-    </row>
-    <row r="46" spans="1:13" ht="32">
+      <c r="N45" s="15"/>
+      <c r="O45" s="15"/>
+    </row>
+    <row r="46" spans="1:15" ht="32">
       <c r="A46" s="1" t="s">
         <v>62</v>
       </c>
@@ -3383,7 +3441,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="48">
+    <row r="47" spans="1:15" ht="48">
       <c r="A47" s="1" t="s">
         <v>22</v>
       </c>
@@ -3396,11 +3454,11 @@
       <c r="D47" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="M47" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" ht="48">
+      <c r="O47" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="48">
       <c r="A48" s="1" t="s">
         <v>22</v>
       </c>
@@ -3413,11 +3471,11 @@
       <c r="D48" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="M48" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" ht="32">
+      <c r="O48" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="32">
       <c r="A49" s="1" t="s">
         <v>22</v>
       </c>
@@ -3430,11 +3488,11 @@
       <c r="D49" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="M49" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" ht="32">
+      <c r="O49" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="32">
       <c r="A50" s="1" t="s">
         <v>22</v>
       </c>
@@ -3447,11 +3505,11 @@
       <c r="D50" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="M50" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+      <c r="O50" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51" s="1" t="s">
         <v>22</v>
       </c>
@@ -3464,11 +3522,11 @@
       <c r="D51" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="M51" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+      <c r="O51" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52" s="1" t="s">
         <v>22</v>
       </c>
@@ -3481,11 +3539,11 @@
       <c r="D52" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="M52" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="O52" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53" s="15" t="s">
         <v>101</v>
       </c>
@@ -3495,14 +3553,16 @@
       <c r="E53" s="16"/>
       <c r="F53" s="16"/>
       <c r="G53" s="16"/>
-      <c r="H53" s="15"/>
+      <c r="H53" s="16"/>
       <c r="I53" s="16"/>
-      <c r="J53" s="16"/>
-      <c r="K53" s="15"/>
-      <c r="L53" s="15"/>
+      <c r="J53" s="15"/>
+      <c r="K53" s="16"/>
+      <c r="L53" s="16"/>
       <c r="M53" s="15"/>
-    </row>
-    <row r="55" spans="1:13">
+      <c r="N53" s="15"/>
+      <c r="O53" s="15"/>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55" s="15" t="s">
         <v>98</v>
       </c>
@@ -3520,14 +3580,16 @@
       </c>
       <c r="F55" s="16"/>
       <c r="G55" s="16"/>
-      <c r="H55" s="15"/>
+      <c r="H55" s="16"/>
       <c r="I55" s="16"/>
-      <c r="J55" s="16"/>
-      <c r="K55" s="15"/>
-      <c r="L55" s="15"/>
+      <c r="J55" s="15"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="16"/>
       <c r="M55" s="15"/>
-    </row>
-    <row r="56" spans="1:13" ht="32">
+      <c r="N55" s="15"/>
+      <c r="O55" s="15"/>
+    </row>
+    <row r="56" spans="1:15" ht="32">
       <c r="A56" s="1" t="s">
         <v>62</v>
       </c>
@@ -3541,7 +3603,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:15">
       <c r="A57" s="1" t="s">
         <v>22</v>
       </c>
@@ -3554,11 +3616,11 @@
       <c r="D57" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="M57" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" ht="32">
+      <c r="O57" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="32">
       <c r="A58" s="1" t="s">
         <v>22</v>
       </c>
@@ -3571,11 +3633,11 @@
       <c r="D58" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="M58" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="O58" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59" s="1" t="s">
         <v>22</v>
       </c>
@@ -3588,11 +3650,11 @@
       <c r="D59" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="M59" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+      <c r="O59" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60" s="1" t="s">
         <v>22</v>
       </c>
@@ -3605,11 +3667,11 @@
       <c r="D60" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="M60" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" ht="48">
+      <c r="O60" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="48">
       <c r="A61" s="1" t="s">
         <v>22</v>
       </c>
@@ -3622,11 +3684,11 @@
       <c r="D61" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="M61" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" ht="32">
+      <c r="O61" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="32">
       <c r="A62" s="1" t="s">
         <v>22</v>
       </c>
@@ -3640,7 +3702,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:15">
       <c r="A63" s="15" t="s">
         <v>101</v>
       </c>
@@ -3650,14 +3712,16 @@
       <c r="E63" s="16"/>
       <c r="F63" s="16"/>
       <c r="G63" s="16"/>
-      <c r="H63" s="15"/>
+      <c r="H63" s="16"/>
       <c r="I63" s="16"/>
-      <c r="J63" s="16"/>
-      <c r="K63" s="15"/>
-      <c r="L63" s="15"/>
+      <c r="J63" s="15"/>
+      <c r="K63" s="16"/>
+      <c r="L63" s="16"/>
       <c r="M63" s="15"/>
-    </row>
-    <row r="65" spans="1:13">
+      <c r="N63" s="15"/>
+      <c r="O63" s="15"/>
+    </row>
+    <row r="65" spans="1:15">
       <c r="A65" s="6" t="s">
         <v>101</v>
       </c>
@@ -3667,25 +3731,29 @@
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
-      <c r="H65" s="6"/>
+      <c r="H65" s="7"/>
       <c r="I65" s="7"/>
-      <c r="J65" s="7"/>
-      <c r="K65" s="6"/>
-      <c r="L65" s="6"/>
-      <c r="M65" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" s="4" customFormat="1">
+      <c r="J65" s="6"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="7"/>
+      <c r="M65" s="6"/>
+      <c r="N65" s="6"/>
+      <c r="O65" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" s="4" customFormat="1">
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
       <c r="I66" s="5"/>
-      <c r="J66" s="5"/>
-    </row>
-    <row r="67" spans="1:13">
+      <c r="K66" s="5"/>
+      <c r="L66" s="5"/>
+    </row>
+    <row r="67" spans="1:15">
       <c r="A67" s="6" t="s">
         <v>98</v>
       </c>
@@ -3701,18 +3769,20 @@
       <c r="E67" s="7"/>
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
-      <c r="H67" s="6"/>
+      <c r="H67" s="7"/>
       <c r="I67" s="7"/>
-      <c r="J67" s="7"/>
-      <c r="K67" s="6" t="s">
+      <c r="J67" s="6"/>
+      <c r="K67" s="7"/>
+      <c r="L67" s="7"/>
+      <c r="M67" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="L67" s="6"/>
-      <c r="M67" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" ht="48">
+      <c r="N67" s="6"/>
+      <c r="O67" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" ht="48">
       <c r="A68" s="1" t="s">
         <v>108</v>
       </c>
@@ -3725,11 +3795,11 @@
       <c r="D68" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="M68" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" ht="48">
+      <c r="O68" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" ht="48">
       <c r="A69" s="1" t="s">
         <v>108</v>
       </c>
@@ -3742,11 +3812,11 @@
       <c r="D69" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="M69" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" ht="48">
+      <c r="O69" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" ht="48">
       <c r="A70" s="1" t="s">
         <v>108</v>
       </c>
@@ -3759,11 +3829,11 @@
       <c r="D70" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="M70" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" ht="32">
+      <c r="O70" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" ht="32">
       <c r="A71" s="1" t="s">
         <v>22</v>
       </c>
@@ -3776,11 +3846,11 @@
       <c r="D71" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="M71" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" ht="80">
+      <c r="O71" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" ht="80">
       <c r="A72" s="1" t="s">
         <v>22</v>
       </c>
@@ -3793,11 +3863,11 @@
       <c r="D72" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="M72" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13">
+      <c r="O72" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
       <c r="A73" s="6" t="s">
         <v>101</v>
       </c>
@@ -3807,14 +3877,16 @@
       <c r="E73" s="7"/>
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
-      <c r="H73" s="6"/>
+      <c r="H73" s="7"/>
       <c r="I73" s="7"/>
-      <c r="J73" s="7"/>
-      <c r="K73" s="6"/>
-      <c r="L73" s="6"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="7"/>
+      <c r="L73" s="7"/>
       <c r="M73" s="6"/>
-    </row>
-    <row r="75" spans="1:13">
+      <c r="N73" s="6"/>
+      <c r="O73" s="6"/>
+    </row>
+    <row r="75" spans="1:15">
       <c r="A75" s="6" t="s">
         <v>98</v>
       </c>
@@ -3830,16 +3902,18 @@
       <c r="E75" s="7"/>
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
-      <c r="H75" s="6"/>
+      <c r="H75" s="7"/>
       <c r="I75" s="7"/>
-      <c r="J75" s="7"/>
-      <c r="K75" s="6" t="s">
+      <c r="J75" s="6"/>
+      <c r="K75" s="7"/>
+      <c r="L75" s="7"/>
+      <c r="M75" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="L75" s="6"/>
-      <c r="M75" s="6"/>
-    </row>
-    <row r="76" spans="1:13" ht="32">
+      <c r="N75" s="6"/>
+      <c r="O75" s="6"/>
+    </row>
+    <row r="76" spans="1:15" ht="32">
       <c r="A76" s="1" t="s">
         <v>22</v>
       </c>
@@ -3852,11 +3926,11 @@
       <c r="D76" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M76" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" ht="32">
+      <c r="O76" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="32">
       <c r="A77" s="1" t="s">
         <v>22</v>
       </c>
@@ -3869,11 +3943,11 @@
       <c r="D77" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="M77" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" ht="48">
+      <c r="O77" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" ht="48">
       <c r="A78" s="1" t="s">
         <v>22</v>
       </c>
@@ -3886,11 +3960,11 @@
       <c r="D78" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="M78" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" ht="48">
+      <c r="O78" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" ht="48">
       <c r="A79" s="1" t="s">
         <v>22</v>
       </c>
@@ -3903,11 +3977,11 @@
       <c r="D79" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="M79" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" ht="32">
+      <c r="O79" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" ht="32">
       <c r="A80" s="1" t="s">
         <v>22</v>
       </c>
@@ -3920,11 +3994,11 @@
       <c r="D80" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="M80" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" ht="32">
+      <c r="O80" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" ht="32">
       <c r="A81" s="1" t="s">
         <v>22</v>
       </c>
@@ -3937,11 +4011,11 @@
       <c r="D81" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="M81" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" ht="48">
+      <c r="O81" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" ht="48">
       <c r="A82" s="1" t="s">
         <v>22</v>
       </c>
@@ -3954,11 +4028,11 @@
       <c r="D82" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="M82" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13">
+      <c r="O82" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
       <c r="A83" s="1" t="s">
         <v>22</v>
       </c>
@@ -3971,11 +4045,11 @@
       <c r="D83" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="M83" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13">
+      <c r="O83" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
       <c r="A84" s="1" t="s">
         <v>22</v>
       </c>
@@ -3988,11 +4062,11 @@
       <c r="D84" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="M84" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13">
+      <c r="O84" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
       <c r="A85" s="6" t="s">
         <v>101</v>
       </c>
@@ -4002,14 +4076,16 @@
       <c r="E85" s="7"/>
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
-      <c r="H85" s="6"/>
+      <c r="H85" s="7"/>
       <c r="I85" s="7"/>
-      <c r="J85" s="7"/>
-      <c r="K85" s="6"/>
-      <c r="L85" s="6"/>
+      <c r="J85" s="6"/>
+      <c r="K85" s="7"/>
+      <c r="L85" s="7"/>
       <c r="M85" s="6"/>
-    </row>
-    <row r="87" spans="1:13">
+      <c r="N85" s="6"/>
+      <c r="O85" s="6"/>
+    </row>
+    <row r="87" spans="1:15">
       <c r="A87" s="6" t="s">
         <v>98</v>
       </c>
@@ -4025,16 +4101,18 @@
       <c r="E87" s="7"/>
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
-      <c r="H87" s="6"/>
+      <c r="H87" s="7"/>
       <c r="I87" s="7"/>
-      <c r="J87" s="7"/>
-      <c r="K87" s="6" t="s">
+      <c r="J87" s="6"/>
+      <c r="K87" s="7"/>
+      <c r="L87" s="7"/>
+      <c r="M87" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="L87" s="6"/>
-      <c r="M87" s="6"/>
-    </row>
-    <row r="88" spans="1:13" ht="64">
+      <c r="N87" s="6"/>
+      <c r="O87" s="6"/>
+    </row>
+    <row r="88" spans="1:15" ht="64">
       <c r="A88" s="1" t="s">
         <v>141</v>
       </c>
@@ -4047,11 +4125,11 @@
       <c r="D88" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="M88" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" ht="48">
+      <c r="O88" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" ht="48">
       <c r="A89" s="1" t="s">
         <v>141</v>
       </c>
@@ -4064,11 +4142,11 @@
       <c r="D89" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="M89" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" ht="64">
+      <c r="O89" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" ht="64">
       <c r="A90" s="1" t="s">
         <v>141</v>
       </c>
@@ -4081,11 +4159,11 @@
       <c r="D90" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="M90" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" ht="64">
+      <c r="O90" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" ht="64">
       <c r="A91" s="1" t="s">
         <v>141</v>
       </c>
@@ -4098,11 +4176,11 @@
       <c r="D91" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="M91" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" ht="64">
+      <c r="O91" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" ht="64">
       <c r="A92" s="1" t="s">
         <v>141</v>
       </c>
@@ -4115,11 +4193,11 @@
       <c r="D92" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="M92" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" ht="64">
+      <c r="O92" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" ht="64">
       <c r="A93" s="1" t="s">
         <v>141</v>
       </c>
@@ -4132,11 +4210,11 @@
       <c r="D93" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="M93" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13">
+      <c r="O93" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
       <c r="A94" s="6" t="s">
         <v>101</v>
       </c>
@@ -4146,14 +4224,16 @@
       <c r="E94" s="7"/>
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
-      <c r="H94" s="6"/>
+      <c r="H94" s="7"/>
       <c r="I94" s="7"/>
-      <c r="J94" s="7"/>
-      <c r="K94" s="6"/>
-      <c r="L94" s="6"/>
+      <c r="J94" s="6"/>
+      <c r="K94" s="7"/>
+      <c r="L94" s="7"/>
       <c r="M94" s="6"/>
-    </row>
-    <row r="96" spans="1:13">
+      <c r="N94" s="6"/>
+      <c r="O94" s="6"/>
+    </row>
+    <row r="96" spans="1:15">
       <c r="A96" s="6" t="s">
         <v>98</v>
       </c>
@@ -4169,16 +4249,18 @@
       <c r="E96" s="7"/>
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
-      <c r="H96" s="6"/>
+      <c r="H96" s="7"/>
       <c r="I96" s="7"/>
-      <c r="J96" s="7"/>
-      <c r="K96" s="6" t="s">
+      <c r="J96" s="6"/>
+      <c r="K96" s="7"/>
+      <c r="L96" s="7"/>
+      <c r="M96" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="L96" s="6"/>
-      <c r="M96" s="6"/>
-    </row>
-    <row r="97" spans="1:13" ht="185" customHeight="1">
+      <c r="N96" s="6"/>
+      <c r="O96" s="6"/>
+    </row>
+    <row r="97" spans="1:15" ht="185" customHeight="1">
       <c r="A97" s="1" t="s">
         <v>62</v>
       </c>
@@ -4192,7 +4274,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:15">
       <c r="A99" s="15" t="s">
         <v>98</v>
       </c>
@@ -4206,14 +4288,16 @@
       </c>
       <c r="F99" s="16"/>
       <c r="G99" s="16"/>
-      <c r="H99" s="15"/>
+      <c r="H99" s="16"/>
       <c r="I99" s="16"/>
-      <c r="J99" s="16"/>
-      <c r="K99" s="15"/>
-      <c r="L99" s="15"/>
+      <c r="J99" s="15"/>
+      <c r="K99" s="16"/>
+      <c r="L99" s="16"/>
       <c r="M99" s="15"/>
-    </row>
-    <row r="100" spans="1:13" ht="64">
+      <c r="N99" s="15"/>
+      <c r="O99" s="15"/>
+    </row>
+    <row r="100" spans="1:15" ht="64">
       <c r="A100" s="1" t="s">
         <v>62</v>
       </c>
@@ -4226,14 +4310,14 @@
       <c r="D100" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="F100" s="2" t="s">
+      <c r="H100" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="G100" s="2" t="s">
+      <c r="I100" s="2" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="48">
+    <row r="101" spans="1:15" ht="48">
       <c r="A101" s="1" t="s">
         <v>62</v>
       </c>
@@ -4247,7 +4331,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="32">
+    <row r="102" spans="1:15" ht="32">
       <c r="A102" s="1" t="s">
         <v>62</v>
       </c>
@@ -4261,7 +4345,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:15">
       <c r="A103" s="15" t="s">
         <v>101</v>
       </c>
@@ -4271,14 +4355,16 @@
       <c r="E103" s="16"/>
       <c r="F103" s="16"/>
       <c r="G103" s="16"/>
-      <c r="H103" s="15"/>
+      <c r="H103" s="16"/>
       <c r="I103" s="16"/>
-      <c r="J103" s="16"/>
-      <c r="K103" s="15"/>
-      <c r="L103" s="15"/>
+      <c r="J103" s="15"/>
+      <c r="K103" s="16"/>
+      <c r="L103" s="16"/>
       <c r="M103" s="15"/>
-    </row>
-    <row r="105" spans="1:13" ht="32">
+      <c r="N103" s="15"/>
+      <c r="O103" s="15"/>
+    </row>
+    <row r="105" spans="1:15" ht="32">
       <c r="A105" s="1" t="s">
         <v>155</v>
       </c>
@@ -4291,11 +4377,11 @@
       <c r="D105" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="M105" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" ht="96">
+      <c r="O105" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" ht="96">
       <c r="A106" s="1" t="s">
         <v>155</v>
       </c>
@@ -4308,17 +4394,17 @@
       <c r="D106" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="F106" s="2" t="s">
+      <c r="H106" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="G106" s="2" t="s">
+      <c r="I106" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="M106" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13">
+      <c r="O106" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15">
       <c r="A107" s="1" t="s">
         <v>155</v>
       </c>
@@ -4331,11 +4417,11 @@
       <c r="D107" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="M107" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13">
+      <c r="O107" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15">
       <c r="A108" s="1" t="s">
         <v>155</v>
       </c>
@@ -4348,11 +4434,11 @@
       <c r="D108" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="M108" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" ht="32">
+      <c r="O108" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" ht="32">
       <c r="A109" s="1" t="s">
         <v>155</v>
       </c>
@@ -4365,11 +4451,11 @@
       <c r="D109" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="M109" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13">
+      <c r="O109" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15">
       <c r="A111" s="15" t="s">
         <v>98</v>
       </c>
@@ -4383,14 +4469,16 @@
       </c>
       <c r="F111" s="16"/>
       <c r="G111" s="16"/>
-      <c r="H111" s="15"/>
+      <c r="H111" s="16"/>
       <c r="I111" s="16"/>
-      <c r="J111" s="16"/>
-      <c r="K111" s="15"/>
-      <c r="L111" s="15"/>
+      <c r="J111" s="15"/>
+      <c r="K111" s="16"/>
+      <c r="L111" s="16"/>
       <c r="M111" s="15"/>
-    </row>
-    <row r="112" spans="1:13" ht="32">
+      <c r="N111" s="15"/>
+      <c r="O111" s="15"/>
+    </row>
+    <row r="112" spans="1:15" ht="32">
       <c r="A112" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,7 +4492,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" spans="1:15">
       <c r="A113" s="1" t="s">
         <v>155</v>
       </c>
@@ -4417,11 +4505,11 @@
       <c r="D113" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="M113" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13">
+      <c r="O113" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15">
       <c r="A114" s="1" t="s">
         <v>155</v>
       </c>
@@ -4434,11 +4522,11 @@
       <c r="D114" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="M114" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13">
+      <c r="O114" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15">
       <c r="A115" s="1" t="s">
         <v>155</v>
       </c>
@@ -4451,11 +4539,11 @@
       <c r="D115" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="M115" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13">
+      <c r="O115" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15">
       <c r="A116" s="15" t="s">
         <v>101</v>
       </c>
@@ -4465,14 +4553,16 @@
       <c r="E116" s="16"/>
       <c r="F116" s="16"/>
       <c r="G116" s="16"/>
-      <c r="H116" s="15"/>
+      <c r="H116" s="16"/>
       <c r="I116" s="16"/>
-      <c r="J116" s="16"/>
-      <c r="K116" s="15"/>
-      <c r="L116" s="15"/>
+      <c r="J116" s="15"/>
+      <c r="K116" s="16"/>
+      <c r="L116" s="16"/>
       <c r="M116" s="15"/>
-    </row>
-    <row r="118" spans="1:13">
+      <c r="N116" s="15"/>
+      <c r="O116" s="15"/>
+    </row>
+    <row r="118" spans="1:15">
       <c r="A118" s="6" t="s">
         <v>101</v>
       </c>
@@ -4482,14 +4572,16 @@
       <c r="E118" s="7"/>
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
-      <c r="H118" s="6"/>
+      <c r="H118" s="7"/>
       <c r="I118" s="7"/>
-      <c r="J118" s="7"/>
-      <c r="K118" s="6"/>
-      <c r="L118" s="6"/>
+      <c r="J118" s="6"/>
+      <c r="K118" s="7"/>
+      <c r="L118" s="7"/>
       <c r="M118" s="6"/>
-    </row>
-    <row r="120" spans="1:13">
+      <c r="N118" s="6"/>
+      <c r="O118" s="6"/>
+    </row>
+    <row r="120" spans="1:15">
       <c r="A120" s="6" t="s">
         <v>98</v>
       </c>
@@ -4505,16 +4597,18 @@
       <c r="E120" s="7"/>
       <c r="F120" s="7"/>
       <c r="G120" s="7"/>
-      <c r="H120" s="6"/>
+      <c r="H120" s="7"/>
       <c r="I120" s="7"/>
-      <c r="J120" s="7"/>
-      <c r="K120" s="6" t="s">
+      <c r="J120" s="6"/>
+      <c r="K120" s="7"/>
+      <c r="L120" s="7"/>
+      <c r="M120" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="L120" s="6"/>
-      <c r="M120" s="6"/>
-    </row>
-    <row r="121" spans="1:13" ht="32">
+      <c r="N120" s="6"/>
+      <c r="O120" s="6"/>
+    </row>
+    <row r="121" spans="1:15" ht="32">
       <c r="A121" s="1" t="s">
         <v>22</v>
       </c>
@@ -4527,11 +4621,11 @@
       <c r="D121" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="M121" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13">
+      <c r="O121" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15">
       <c r="A122" s="1" t="s">
         <v>22</v>
       </c>
@@ -4544,14 +4638,14 @@
       <c r="D122" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="K122" s="1" t="s">
+      <c r="M122" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="M122" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" ht="48">
+      <c r="O122" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" ht="48">
       <c r="A123" s="1" t="s">
         <v>204</v>
       </c>
@@ -4564,20 +4658,20 @@
       <c r="D123" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="F123" s="2" t="s">
+      <c r="H123" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="G123" s="2" t="s">
+      <c r="I123" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="K123" s="1" t="s">
+      <c r="M123" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="M123" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13">
+      <c r="O123" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15">
       <c r="A124" s="1" t="s">
         <v>22</v>
       </c>
@@ -4590,11 +4684,11 @@
       <c r="D124" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="M124" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" ht="32">
+      <c r="O124" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" ht="32">
       <c r="A125" s="1" t="s">
         <v>22</v>
       </c>
@@ -4607,14 +4701,14 @@
       <c r="D125" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="K125" s="3" t="s">
+      <c r="M125" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="M125" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" ht="48">
+      <c r="O125" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" ht="48">
       <c r="A126" s="1" t="s">
         <v>204</v>
       </c>
@@ -4627,20 +4721,20 @@
       <c r="D126" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="F126" s="2" t="s">
+      <c r="H126" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="G126" s="2" t="s">
+      <c r="I126" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="K126" s="3" t="s">
+      <c r="M126" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="M126" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13">
+      <c r="O126" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15">
       <c r="A127" s="6" t="s">
         <v>101</v>
       </c>
@@ -4650,14 +4744,16 @@
       <c r="E127" s="7"/>
       <c r="F127" s="7"/>
       <c r="G127" s="7"/>
-      <c r="H127" s="6"/>
+      <c r="H127" s="7"/>
       <c r="I127" s="7"/>
-      <c r="J127" s="7"/>
-      <c r="K127" s="6"/>
-      <c r="L127" s="6"/>
+      <c r="J127" s="6"/>
+      <c r="K127" s="7"/>
+      <c r="L127" s="7"/>
       <c r="M127" s="6"/>
-    </row>
-    <row r="129" spans="1:13">
+      <c r="N127" s="6"/>
+      <c r="O127" s="6"/>
+    </row>
+    <row r="129" spans="1:15">
       <c r="A129" s="6" t="s">
         <v>98</v>
       </c>
@@ -4673,16 +4769,18 @@
       <c r="E129" s="7"/>
       <c r="F129" s="7"/>
       <c r="G129" s="7"/>
-      <c r="H129" s="6"/>
+      <c r="H129" s="7"/>
       <c r="I129" s="7"/>
-      <c r="J129" s="7"/>
-      <c r="K129" s="6" t="s">
+      <c r="J129" s="6"/>
+      <c r="K129" s="7"/>
+      <c r="L129" s="7"/>
+      <c r="M129" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="L129" s="6"/>
-      <c r="M129" s="6"/>
-    </row>
-    <row r="130" spans="1:13">
+      <c r="N129" s="6"/>
+      <c r="O129" s="6"/>
+    </row>
+    <row r="130" spans="1:15">
       <c r="A130" s="1" t="s">
         <v>22</v>
       </c>
@@ -4695,11 +4793,11 @@
       <c r="D130" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="M130" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13">
+      <c r="O130" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15">
       <c r="A132" s="15" t="s">
         <v>98</v>
       </c>
@@ -4717,14 +4815,16 @@
       </c>
       <c r="F132" s="16"/>
       <c r="G132" s="16"/>
-      <c r="H132" s="15"/>
+      <c r="H132" s="16"/>
       <c r="I132" s="16"/>
-      <c r="J132" s="16"/>
-      <c r="K132" s="15"/>
-      <c r="L132" s="15"/>
+      <c r="J132" s="15"/>
+      <c r="K132" s="16"/>
+      <c r="L132" s="16"/>
       <c r="M132" s="15"/>
-    </row>
-    <row r="133" spans="1:13" ht="32">
+      <c r="N132" s="15"/>
+      <c r="O132" s="15"/>
+    </row>
+    <row r="133" spans="1:15" ht="32">
       <c r="A133" s="1" t="s">
         <v>62</v>
       </c>
@@ -4737,14 +4837,14 @@
       <c r="D133" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="F133" s="2" t="s">
+      <c r="H133" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="G133" s="2" t="s">
+      <c r="I133" s="2" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="134" spans="1:13">
+    <row r="134" spans="1:15">
       <c r="A134" s="1" t="s">
         <v>22</v>
       </c>
@@ -4757,11 +4857,11 @@
       <c r="D134" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="M134" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13">
+      <c r="O134" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15">
       <c r="A135" s="1" t="s">
         <v>22</v>
       </c>
@@ -4774,11 +4874,11 @@
       <c r="D135" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="M135" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13">
+      <c r="O135" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15">
       <c r="A136" s="1" t="s">
         <v>22</v>
       </c>
@@ -4791,11 +4891,11 @@
       <c r="D136" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="M136" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13">
+      <c r="O136" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15">
       <c r="A137" s="1" t="s">
         <v>22</v>
       </c>
@@ -4808,11 +4908,11 @@
       <c r="D137" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="M137" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13" ht="32">
+      <c r="O137" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" ht="32">
       <c r="A138" s="1" t="s">
         <v>22</v>
       </c>
@@ -4825,11 +4925,11 @@
       <c r="D138" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="M138" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13" ht="80">
+      <c r="O138" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" ht="80">
       <c r="A139" s="1" t="s">
         <v>22</v>
       </c>
@@ -4842,11 +4942,11 @@
       <c r="D139" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="M139" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13" ht="48">
+      <c r="O139" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" ht="48">
       <c r="A140" s="1" t="s">
         <v>22</v>
       </c>
@@ -4859,11 +4959,11 @@
       <c r="D140" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="M140" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13" ht="32">
+      <c r="O140" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" ht="32">
       <c r="A141" s="1" t="s">
         <v>22</v>
       </c>
@@ -4876,11 +4976,11 @@
       <c r="D141" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="M141" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13">
+      <c r="O141" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15">
       <c r="A142" s="1" t="s">
         <v>22</v>
       </c>
@@ -4893,11 +4993,11 @@
       <c r="D142" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="M142" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13">
+      <c r="O142" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15">
       <c r="A143" s="15" t="s">
         <v>101</v>
       </c>
@@ -4907,14 +5007,16 @@
       <c r="E143" s="16"/>
       <c r="F143" s="16"/>
       <c r="G143" s="16"/>
-      <c r="H143" s="15"/>
+      <c r="H143" s="16"/>
       <c r="I143" s="16"/>
-      <c r="J143" s="16"/>
-      <c r="K143" s="15"/>
-      <c r="L143" s="15"/>
+      <c r="J143" s="15"/>
+      <c r="K143" s="16"/>
+      <c r="L143" s="16"/>
       <c r="M143" s="15"/>
-    </row>
-    <row r="145" spans="1:13">
+      <c r="N143" s="15"/>
+      <c r="O143" s="15"/>
+    </row>
+    <row r="145" spans="1:15">
       <c r="A145" s="6" t="s">
         <v>101</v>
       </c>
@@ -4924,14 +5026,16 @@
       <c r="E145" s="7"/>
       <c r="F145" s="7"/>
       <c r="G145" s="7"/>
-      <c r="H145" s="6"/>
+      <c r="H145" s="7"/>
       <c r="I145" s="7"/>
-      <c r="J145" s="7"/>
-      <c r="K145" s="6"/>
-      <c r="L145" s="6"/>
+      <c r="J145" s="6"/>
+      <c r="K145" s="7"/>
+      <c r="L145" s="7"/>
       <c r="M145" s="6"/>
-    </row>
-    <row r="147" spans="1:13">
+      <c r="N145" s="6"/>
+      <c r="O145" s="6"/>
+    </row>
+    <row r="147" spans="1:15">
       <c r="A147" s="6" t="s">
         <v>98</v>
       </c>
@@ -4947,18 +5051,20 @@
       <c r="E147" s="7"/>
       <c r="F147" s="7"/>
       <c r="G147" s="7"/>
-      <c r="H147" s="6"/>
+      <c r="H147" s="7"/>
       <c r="I147" s="7"/>
-      <c r="J147" s="7"/>
-      <c r="K147" s="6" t="s">
+      <c r="J147" s="6"/>
+      <c r="K147" s="7"/>
+      <c r="L147" s="7"/>
+      <c r="M147" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="L147" s="6"/>
-      <c r="M147" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="148" spans="1:13">
+      <c r="N147" s="6"/>
+      <c r="O147" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15">
       <c r="A148" s="1" t="s">
         <v>251</v>
       </c>
@@ -4971,22 +5077,22 @@
       <c r="D148" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="M148" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="149" spans="1:13" ht="96">
+      <c r="O148" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" ht="96">
       <c r="A149" s="1" t="s">
         <v>560</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="L149" s="2" t="s">
+      <c r="N149" s="2" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="32">
+    <row r="150" spans="1:15" ht="32">
       <c r="A150" s="1" t="s">
         <v>237</v>
       </c>
@@ -4999,22 +5105,22 @@
       <c r="D150" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="M150" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="151" spans="1:13" ht="48">
+      <c r="O150" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" ht="48">
       <c r="A151" s="1" t="s">
         <v>560</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="L151" s="2" t="s">
+      <c r="N151" s="2" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="32">
+    <row r="152" spans="1:15" ht="32">
       <c r="A152" s="1" t="s">
         <v>238</v>
       </c>
@@ -5027,22 +5133,22 @@
       <c r="D152" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="M152" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="153" spans="1:13" ht="80">
+      <c r="O152" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" ht="80">
       <c r="A153" s="1" t="s">
         <v>560</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="L153" s="2" t="s">
+      <c r="N153" s="2" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="154" spans="1:13">
+    <row r="154" spans="1:15">
       <c r="A154" s="1" t="s">
         <v>576</v>
       </c>
@@ -5055,12 +5161,12 @@
       <c r="D154" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="K154" s="2"/>
-      <c r="M154" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="155" spans="1:13">
+      <c r="M154" s="2"/>
+      <c r="O154" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15">
       <c r="A155" s="6" t="s">
         <v>101</v>
       </c>
@@ -5070,14 +5176,16 @@
       <c r="E155" s="7"/>
       <c r="F155" s="7"/>
       <c r="G155" s="7"/>
-      <c r="H155" s="6"/>
+      <c r="H155" s="7"/>
       <c r="I155" s="7"/>
-      <c r="J155" s="7"/>
-      <c r="K155" s="6"/>
-      <c r="L155" s="6"/>
+      <c r="J155" s="6"/>
+      <c r="K155" s="7"/>
+      <c r="L155" s="7"/>
       <c r="M155" s="6"/>
-    </row>
-    <row r="157" spans="1:13" ht="32">
+      <c r="N155" s="6"/>
+      <c r="O155" s="6"/>
+    </row>
+    <row r="157" spans="1:15" ht="32">
       <c r="A157" s="6" t="s">
         <v>98</v>
       </c>
@@ -5093,16 +5201,18 @@
       <c r="E157" s="7"/>
       <c r="F157" s="7"/>
       <c r="G157" s="7"/>
-      <c r="H157" s="6"/>
+      <c r="H157" s="7"/>
       <c r="I157" s="7"/>
-      <c r="J157" s="7"/>
-      <c r="K157" s="6" t="s">
+      <c r="J157" s="6"/>
+      <c r="K157" s="7"/>
+      <c r="L157" s="7"/>
+      <c r="M157" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="L157" s="6"/>
-      <c r="M157" s="6"/>
-    </row>
-    <row r="158" spans="1:13">
+      <c r="N157" s="6"/>
+      <c r="O157" s="6"/>
+    </row>
+    <row r="158" spans="1:15">
       <c r="A158" s="1" t="s">
         <v>3</v>
       </c>
@@ -5115,11 +5225,11 @@
       <c r="D158" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="M158" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="159" spans="1:13" ht="32">
+      <c r="O158" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" ht="32">
       <c r="A159" s="1" t="s">
         <v>22</v>
       </c>
@@ -5132,11 +5242,11 @@
       <c r="D159" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="M159" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="160" spans="1:13">
+      <c r="O159" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15">
       <c r="A160" s="1" t="s">
         <v>22</v>
       </c>
@@ -5149,11 +5259,11 @@
       <c r="D160" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="M160" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="161" spans="1:13" ht="32">
+      <c r="O160" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" ht="32">
       <c r="A161" s="1" t="s">
         <v>22</v>
       </c>
@@ -5166,11 +5276,11 @@
       <c r="D161" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="M161" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="162" spans="1:13">
+      <c r="O161" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15">
       <c r="A162" s="6" t="s">
         <v>101</v>
       </c>
@@ -5180,14 +5290,16 @@
       <c r="E162" s="7"/>
       <c r="F162" s="7"/>
       <c r="G162" s="7"/>
-      <c r="H162" s="6"/>
+      <c r="H162" s="7"/>
       <c r="I162" s="7"/>
-      <c r="J162" s="7"/>
-      <c r="K162" s="6"/>
-      <c r="L162" s="6"/>
+      <c r="J162" s="6"/>
+      <c r="K162" s="7"/>
+      <c r="L162" s="7"/>
       <c r="M162" s="6"/>
-    </row>
-    <row r="164" spans="1:13">
+      <c r="N162" s="6"/>
+      <c r="O162" s="6"/>
+    </row>
+    <row r="164" spans="1:15">
       <c r="A164" s="6" t="s">
         <v>98</v>
       </c>
@@ -5203,25 +5315,29 @@
       <c r="E164" s="7"/>
       <c r="F164" s="7"/>
       <c r="G164" s="7"/>
-      <c r="H164" s="6"/>
+      <c r="H164" s="7"/>
       <c r="I164" s="7"/>
-      <c r="J164" s="7"/>
-      <c r="K164" s="6" t="s">
+      <c r="J164" s="6"/>
+      <c r="K164" s="7"/>
+      <c r="L164" s="7"/>
+      <c r="M164" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="L164" s="6"/>
-      <c r="M164" s="6"/>
-    </row>
-    <row r="165" spans="1:13" s="4" customFormat="1">
+      <c r="N164" s="6"/>
+      <c r="O164" s="6"/>
+    </row>
+    <row r="165" spans="1:15" s="4" customFormat="1">
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
       <c r="E165" s="5"/>
       <c r="F165" s="5"/>
       <c r="G165" s="5"/>
+      <c r="H165" s="5"/>
       <c r="I165" s="5"/>
-      <c r="J165" s="5"/>
-    </row>
-    <row r="166" spans="1:13" s="4" customFormat="1">
+      <c r="K165" s="5"/>
+      <c r="L165" s="5"/>
+    </row>
+    <row r="166" spans="1:15" s="4" customFormat="1">
       <c r="A166" s="15" t="s">
         <v>98</v>
       </c>
@@ -5237,14 +5353,16 @@
       <c r="E166" s="16"/>
       <c r="F166" s="16"/>
       <c r="G166" s="16"/>
-      <c r="H166" s="15"/>
+      <c r="H166" s="16"/>
       <c r="I166" s="16"/>
-      <c r="J166" s="16"/>
-      <c r="K166" s="15"/>
-      <c r="L166" s="15"/>
+      <c r="J166" s="15"/>
+      <c r="K166" s="16"/>
+      <c r="L166" s="16"/>
       <c r="M166" s="15"/>
-    </row>
-    <row r="167" spans="1:13" ht="220" customHeight="1">
+      <c r="N166" s="15"/>
+      <c r="O166" s="15"/>
+    </row>
+    <row r="167" spans="1:15" ht="220" customHeight="1">
       <c r="A167" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,7 +5376,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="168" spans="1:13">
+    <row r="168" spans="1:15">
       <c r="A168" s="15" t="s">
         <v>101</v>
       </c>
@@ -5268,14 +5386,16 @@
       <c r="E168" s="16"/>
       <c r="F168" s="16"/>
       <c r="G168" s="16"/>
-      <c r="H168" s="15"/>
+      <c r="H168" s="16"/>
       <c r="I168" s="16"/>
-      <c r="J168" s="16"/>
-      <c r="K168" s="15"/>
-      <c r="L168" s="15"/>
+      <c r="J168" s="15"/>
+      <c r="K168" s="16"/>
+      <c r="L168" s="16"/>
       <c r="M168" s="15"/>
-    </row>
-    <row r="170" spans="1:13">
+      <c r="N168" s="15"/>
+      <c r="O168" s="15"/>
+    </row>
+    <row r="170" spans="1:15">
       <c r="A170" s="15" t="s">
         <v>98</v>
       </c>
@@ -5291,14 +5411,16 @@
       <c r="E170" s="16"/>
       <c r="F170" s="16"/>
       <c r="G170" s="16"/>
-      <c r="H170" s="15"/>
+      <c r="H170" s="16"/>
       <c r="I170" s="16"/>
-      <c r="J170" s="16"/>
-      <c r="K170" s="15"/>
-      <c r="L170" s="15"/>
+      <c r="J170" s="15"/>
+      <c r="K170" s="16"/>
+      <c r="L170" s="16"/>
       <c r="M170" s="15"/>
-    </row>
-    <row r="171" spans="1:13" ht="140" customHeight="1">
+      <c r="N170" s="15"/>
+      <c r="O170" s="15"/>
+    </row>
+    <row r="171" spans="1:15" ht="140" customHeight="1">
       <c r="A171" s="1" t="s">
         <v>62</v>
       </c>
@@ -5312,7 +5434,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="172" spans="1:13">
+    <row r="172" spans="1:15">
       <c r="A172" s="15" t="s">
         <v>101</v>
       </c>
@@ -5322,14 +5444,16 @@
       <c r="E172" s="16"/>
       <c r="F172" s="16"/>
       <c r="G172" s="16"/>
-      <c r="H172" s="15"/>
+      <c r="H172" s="16"/>
       <c r="I172" s="16"/>
-      <c r="J172" s="16"/>
-      <c r="K172" s="15"/>
-      <c r="L172" s="15"/>
+      <c r="J172" s="15"/>
+      <c r="K172" s="16"/>
+      <c r="L172" s="16"/>
       <c r="M172" s="15"/>
-    </row>
-    <row r="174" spans="1:13">
+      <c r="N172" s="15"/>
+      <c r="O172" s="15"/>
+    </row>
+    <row r="174" spans="1:15">
       <c r="A174" s="1" t="s">
         <v>294</v>
       </c>
@@ -5342,11 +5466,11 @@
       <c r="D174" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="M174" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="175" spans="1:13">
+      <c r="O174" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15">
       <c r="A175" s="1" t="s">
         <v>294</v>
       </c>
@@ -5359,11 +5483,11 @@
       <c r="D175" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="M175" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="176" spans="1:13">
+      <c r="O175" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15">
       <c r="A176" s="1" t="s">
         <v>294</v>
       </c>
@@ -5376,11 +5500,11 @@
       <c r="D176" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="M176" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="177" spans="1:13">
+      <c r="O176" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15">
       <c r="A177" s="1" t="s">
         <v>294</v>
       </c>
@@ -5393,11 +5517,11 @@
       <c r="D177" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="M177" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="178" spans="1:13">
+      <c r="O177" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15">
       <c r="A178" s="6" t="s">
         <v>101</v>
       </c>
@@ -5407,14 +5531,16 @@
       <c r="E178" s="7"/>
       <c r="F178" s="7"/>
       <c r="G178" s="7"/>
-      <c r="H178" s="6"/>
+      <c r="H178" s="7"/>
       <c r="I178" s="7"/>
-      <c r="J178" s="7"/>
-      <c r="K178" s="6"/>
-      <c r="L178" s="6"/>
+      <c r="J178" s="6"/>
+      <c r="K178" s="7"/>
+      <c r="L178" s="7"/>
       <c r="M178" s="6"/>
-    </row>
-    <row r="180" spans="1:13">
+      <c r="N178" s="6"/>
+      <c r="O178" s="6"/>
+    </row>
+    <row r="180" spans="1:15">
       <c r="A180" s="6" t="s">
         <v>98</v>
       </c>
@@ -5430,18 +5556,20 @@
       <c r="E180" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="F180" s="7"/>
-      <c r="G180" s="7"/>
-      <c r="H180" s="6"/>
+      <c r="F180" s="6"/>
+      <c r="G180" s="6"/>
+      <c r="H180" s="7"/>
       <c r="I180" s="7"/>
-      <c r="J180" s="7"/>
-      <c r="K180" s="6" t="s">
+      <c r="J180" s="6"/>
+      <c r="K180" s="7"/>
+      <c r="L180" s="7"/>
+      <c r="M180" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="L180" s="6"/>
-      <c r="M180" s="6"/>
-    </row>
-    <row r="181" spans="1:13" ht="128">
+      <c r="N180" s="6"/>
+      <c r="O180" s="6"/>
+    </row>
+    <row r="181" spans="1:15" ht="128">
       <c r="A181" s="1" t="s">
         <v>62</v>
       </c>
@@ -5455,8 +5583,10 @@
         <v>572</v>
       </c>
       <c r="E181" s="1"/>
-    </row>
-    <row r="182" spans="1:13">
+      <c r="F181" s="1"/>
+      <c r="G181" s="1"/>
+    </row>
+    <row r="182" spans="1:15">
       <c r="A182" s="1" t="s">
         <v>307</v>
       </c>
@@ -5470,8 +5600,10 @@
         <v>309</v>
       </c>
       <c r="E182" s="1"/>
-    </row>
-    <row r="183" spans="1:13">
+      <c r="F182" s="1"/>
+      <c r="G182" s="1"/>
+    </row>
+    <row r="183" spans="1:15">
       <c r="A183" s="6" t="s">
         <v>101</v>
       </c>
@@ -5479,14 +5611,16 @@
       <c r="C183" s="6"/>
       <c r="D183" s="6"/>
       <c r="E183" s="6"/>
-      <c r="F183" s="7"/>
-      <c r="G183" s="7"/>
-      <c r="H183" s="6"/>
+      <c r="F183" s="6"/>
+      <c r="G183" s="6"/>
+      <c r="H183" s="7"/>
       <c r="I183" s="7"/>
-      <c r="J183" s="7"/>
-      <c r="K183" s="6"/>
-      <c r="L183" s="6"/>
+      <c r="J183" s="6"/>
+      <c r="K183" s="7"/>
+      <c r="L183" s="7"/>
       <c r="M183" s="6"/>
+      <c r="N183" s="6"/>
+      <c r="O183" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ramOP.xlsx
+++ b/ramOP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ernest/Documents/GitHub/ramOPodk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C8F427-DA4B-2448-9F99-9460DDADB1CF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561F8ECE-2E5E-2E49-8D8D-3AACA223C107}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2570,7 +2570,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2578,7 +2578,8 @@
     <col min="1" max="1" width="38.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="70.83203125" style="2" customWidth="1"/>
-    <col min="5" max="7" width="14.1640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" style="2" customWidth="1"/>
+    <col min="6" max="7" width="25.83203125" style="2" customWidth="1"/>
     <col min="8" max="8" width="38.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="38.83203125" style="2" customWidth="1"/>
     <col min="10" max="10" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
@@ -2589,7 +2590,7 @@
     <col min="15" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="32">
+    <row r="1" spans="1:15" ht="18" customHeight="1">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
